--- a/pytorch/results/official_results_cifar.xlsx
+++ b/pytorch/results/official_results_cifar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" activeTab="1" xr2:uid="{118AFF40-6C83-45A5-9190-047534BA43E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{118AFF40-6C83-45A5-9190-047534BA43E9}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet 32" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -216,6 +216,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,9 +226,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12905,8 +12905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C14C0C-1811-40C8-998C-36FEA773D26D}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12915,59 +12915,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -13012,19 +13012,19 @@
       <c r="E5" s="13">
         <v>2.3018665986200002</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="16">
         <v>0.47929337387999998</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="16">
         <v>1.51561180672938</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>0.42808493589699997</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <v>1.57518886947</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="16">
         <v>1.0032644077068499E-2</v>
       </c>
     </row>
@@ -13044,19 +13044,19 @@
       <c r="E6" s="13">
         <v>2.3000899400499999</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>0.76678537131900004</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="16">
         <v>0.854490426243801</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>0.49058493589699997</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <v>1.54179951568</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="16">
         <v>1.00660406634446E-2</v>
       </c>
     </row>
@@ -13076,19 +13076,19 @@
       <c r="E7" s="13">
         <v>2.2973603162999998</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>0.86541693341899995</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <v>0.61237589407249504</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <v>0.55008012820499996</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <v>1.35709361541</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="16">
         <v>1.01089981474453E-2</v>
       </c>
     </row>
@@ -13108,19 +13108,19 @@
       <c r="E8" s="13">
         <v>2.01626040806</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="16">
         <v>0.91657330345700005</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="16">
         <v>0.46807532693603998</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="16">
         <v>0.55979567307699996</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="16">
         <v>1.3138840144999999</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="16">
         <v>1.0158959060167699E-2</v>
       </c>
     </row>
@@ -13140,19 +13140,19 @@
       <c r="E9" s="13">
         <v>1.6779199624700001</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="16">
         <v>0.94658290652999999</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="16">
         <v>0.364033637785384</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="16">
         <v>0.58543669871799997</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="16">
         <v>1.3726440612699999</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="16">
         <v>1.02193215261629E-2</v>
       </c>
     </row>
@@ -13172,19 +13172,19 @@
       <c r="E10" s="13">
         <v>1.5452213829899999</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>0.96556898207399999</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <v>0.28653082896915899</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="16">
         <v>0.58854166666700003</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <v>1.4579757585699999</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <v>1.02884805007131E-2</v>
       </c>
     </row>
@@ -13204,19 +13204,19 @@
       <c r="E11" s="13">
         <v>1.5288755920499999</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="16">
         <v>0.97681258002600002</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="16">
         <v>0.22995148027237</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="16">
         <v>0.59254807692300004</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="16">
         <v>1.4964679436599999</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <v>1.0368769798929599E-2</v>
       </c>
     </row>
@@ -13236,19 +13236,19 @@
       <c r="E12" s="13">
         <v>1.33704578055</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="16">
         <v>0.98685579385400002</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <v>0.175649907702291</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <v>0.60506810897399999</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="16">
         <v>1.3349675830400001</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="16">
         <v>1.04636842077392E-2</v>
       </c>
     </row>
@@ -13268,19 +13268,19 @@
       <c r="E13" s="13">
         <v>1.3194560311200001</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="16">
         <v>0.99103713188200004</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <v>0.14244147016644099</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="16">
         <v>0.59655448717899995</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="16">
         <v>1.5698570326400001</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <v>1.0570730864868001E-2</v>
       </c>
     </row>
@@ -13300,19 +13300,19 @@
       <c r="E14" s="13">
         <v>1.3361040426399999</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>0.99447823303500005</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
         <v>0.115776896586453</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="16">
         <v>0.57552083333299997</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="16">
         <v>1.6724451849099999</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <v>1.06932612714267E-2</v>
       </c>
     </row>
@@ -13332,19 +13332,19 @@
       <c r="E15" s="13">
         <v>1.2523528557200001</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>0.99673895646599997</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
         <v>9.2554400161042202E-2</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="16">
         <v>0.61107772435899999</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="16">
         <v>1.5264043336099999</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="16">
         <v>1.08253787391348E-2</v>
       </c>
     </row>
@@ -13364,19 +13364,19 @@
       <c r="E16" s="13">
         <v>1.2177860051</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
         <v>0.99793934058900002</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="16">
         <v>7.4067294864739994E-2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="16">
         <v>0.60697115384599998</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="16">
         <v>1.5797361693300001</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <v>1.096630108498E-2</v>
       </c>
     </row>
@@ -13396,19 +13396,19 @@
       <c r="E17" s="13">
         <v>1.23856561287</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="16">
         <v>0.99845950704200004</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="16">
         <v>6.2479562375327202E-2</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="16">
         <v>0.60206330128200003</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="16">
         <v>1.63626453166</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="16">
         <v>1.11147047896275E-2</v>
       </c>
     </row>
@@ -13428,19 +13428,19 @@
       <c r="E18" s="13">
         <v>1.18252231811</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="16">
         <v>0.99923975672200005</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="16">
         <v>5.1681121699178101E-2</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="16">
         <v>0.61438301282100005</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="16">
         <v>1.69222056808</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="16">
         <v>1.12730161207836E-2</v>
       </c>
     </row>
@@ -13460,19 +13460,19 @@
       <c r="E19" s="13">
         <v>1.1436496084700001</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="16">
         <v>0.99955985915500001</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="16">
         <v>4.4078287505157097E-2</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="16">
         <v>0.607572115385</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="16">
         <v>1.77980407337</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="16">
         <v>1.1433068558347199E-2</v>
       </c>
     </row>
@@ -13492,19 +13492,19 @@
       <c r="E20" s="13">
         <v>1.1237374261399999</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="16">
         <v>0.99961987836099997</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="16">
         <v>3.7446179793296099E-2</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="16">
         <v>0.61368189102600001</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="16">
         <v>1.74420756293</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="16">
         <v>1.15933722934114E-2</v>
       </c>
     </row>
@@ -13524,19 +13524,19 @@
       <c r="E21" s="13">
         <v>1.1619694722</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="16">
         <v>0.99977992957700001</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="16">
         <v>3.2826959667071401E-2</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="16">
         <v>0.58733974358999996</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="16">
         <v>1.97227607935</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="16">
         <v>1.17423008152E-2</v>
       </c>
     </row>
@@ -13556,19 +13556,19 @@
       <c r="E22" s="13">
         <v>1.0929915607</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="16">
         <v>0.99983994878399995</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="16">
         <v>2.81760036544671E-2</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="16">
         <v>0.60647035256399995</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="16">
         <v>1.8771280508799999</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="16">
         <v>1.1866043520238E-2</v>
       </c>
     </row>
@@ -13588,19 +13588,19 @@
       <c r="E23" s="13">
         <v>1.0797726590300001</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="16">
         <v>0.999819942382</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="16">
         <v>2.5183127665946999E-2</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="16">
         <v>0.60126201923099998</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="16">
         <v>2.0217666488399999</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="16">
         <v>1.19915625881964E-2</v>
       </c>
     </row>
@@ -13620,19 +13620,19 @@
       <c r="E24" s="13">
         <v>1.08681730105</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="16">
         <v>0.99993998079400004</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <v>2.2345432935332601E-2</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="16">
         <v>0.60797275641000004</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="16">
         <v>2.1134256926899999</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="16">
         <v>1.2109849983973801E-2</v>
       </c>
     </row>
@@ -13652,19 +13652,19 @@
       <c r="E25" s="13">
         <v>1.0822523347099999</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="16">
         <v>1</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="16">
         <v>1.9285512871076702E-2</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="16">
         <v>0.60216346153800004</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="16">
         <v>2.1258101229299999</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="16">
         <v>1.22020641168429E-2</v>
       </c>
     </row>
@@ -13684,19 +13684,19 @@
       <c r="E26" s="13">
         <v>1.0733806397300001</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="16">
         <v>1</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="16">
         <v>1.79172504392766E-2</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="16">
         <v>0.60586939102600001</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="16">
         <v>2.1985097165499998</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="16">
         <v>1.22623729014149E-2</v>
       </c>
     </row>
@@ -13716,19 +13716,19 @@
       <c r="E27" s="13">
         <v>1.1015791879600001</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="16">
         <v>0.99997999359800005</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="16">
         <v>1.6098092020359198E-2</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="16">
         <v>0.60867387820499996</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="16">
         <v>2.1377900631600002</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="16">
         <v>1.2297863164468599E-2</v>
       </c>
     </row>
@@ -13748,19 +13748,19 @@
       <c r="E28" s="13">
         <v>1.06637705213</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="16">
         <v>1</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="16">
         <v>1.47559351279434E-2</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="16">
         <v>0.61428285256399995</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="16">
         <v>2.2198427732199999</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="16">
         <v>1.23268864131807E-2</v>
       </c>
     </row>
@@ -13780,19 +13780,19 @@
       <c r="E29" s="13">
         <v>1.08776991279</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="16">
         <v>1</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="16">
         <v>1.3313494212496099E-2</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="16">
         <v>0.61748798076900002</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="16">
         <v>2.3592949427500001</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="16">
         <v>1.23095682775344E-2</v>
       </c>
     </row>
@@ -13812,19 +13812,19 @@
       <c r="E30" s="13">
         <v>1.2036161965300001</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="16">
         <v>1</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="16">
         <v>1.23684114553559E-2</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="16">
         <v>0.60456730769199996</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="16">
         <v>2.37509961656</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="16">
         <v>1.23177956111079E-2</v>
       </c>
     </row>
@@ -13844,19 +13844,19 @@
       <c r="E31" s="13">
         <v>1.0610310968300001</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="16">
         <v>1</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="16">
         <v>1.13162688586608E-2</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="16">
         <v>0.607572115385</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="16">
         <v>2.3808439303300002</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="16">
         <v>1.2255073473702501E-2</v>
       </c>
     </row>
@@ -13876,19 +13876,19 @@
       <c r="E32" s="13">
         <v>1.0692389198600001</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="16">
         <v>1</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="16">
         <v>1.02593567599178E-2</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="16">
         <v>0.60046073717899995</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="16">
         <v>2.52116178167</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="16">
         <v>1.2134348558420599E-2</v>
       </c>
     </row>
@@ -13908,19 +13908,19 @@
       <c r="E33" s="13">
         <v>1.0995646847</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="16">
         <v>1</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="16">
         <v>9.4283303429543094E-3</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="16">
         <v>0.60697115384599998</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="16">
         <v>2.5941425754899998</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="16">
         <v>1.20034300356738E-2</v>
       </c>
     </row>
@@ -13940,19 +13940,19 @@
       <c r="E34" s="13">
         <v>1.0775553946100001</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="16">
         <v>1</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="16">
         <v>8.7655995341635509E-3</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="16">
         <v>0.59875801282100005</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="16">
         <v>2.7376884460799999</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="16">
         <v>1.1807242286964E-2</v>
       </c>
     </row>
@@ -13972,19 +13972,19 @@
       <c r="E35" s="13">
         <v>1.08930566276</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="16">
         <v>1</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="16">
         <v>8.0608320774250494E-3</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="16">
         <v>0.60036057692300004</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="16">
         <v>2.9047962690800002</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="16">
         <v>1.16381196231069E-2</v>
       </c>
     </row>
@@ -14004,19 +14004,19 @@
       <c r="E36" s="13">
         <v>1.09520493018</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="16">
         <v>1</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="16">
         <v>7.4670077915686096E-3</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="16">
         <v>0.59304887820499996</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="16">
         <v>2.9719601579199999</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="16">
         <v>1.1487212367217E-2</v>
       </c>
     </row>
@@ -14036,19 +14036,19 @@
       <c r="E37" s="13">
         <v>1.0960853052099999</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="16">
         <v>1</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="16">
         <v>6.6973774404135E-3</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="16">
         <v>0.61217948717899995</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="16">
         <v>2.89308551852</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="16">
         <v>1.12306044637697E-2</v>
       </c>
     </row>
@@ -14068,19 +14068,19 @@
       <c r="E38" s="13">
         <v>1.15743677127</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="16">
         <v>1</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="16">
         <v>6.1644454237440903E-3</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="16">
         <v>0.60967548076900002</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="16">
         <v>3.0362253326599999</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="16">
         <v>1.09319759519054E-2</v>
       </c>
     </row>
@@ -14100,19 +14100,19 @@
       <c r="E39" s="13">
         <v>1.1672738521099999</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="16">
         <v>1</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="16">
         <v>5.6643236843480303E-3</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="16">
         <v>0.60556891025600001</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="16">
         <v>3.1326731156799998</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="16">
         <v>1.06996583387526E-2</v>
       </c>
     </row>
@@ -14132,19 +14132,19 @@
       <c r="E40" s="13">
         <v>1.1799811285299999</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="16">
         <v>1</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="16">
         <v>5.1459950441434896E-3</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="16">
         <v>0.61167868589700003</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="16">
         <v>3.22289282848</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="16">
         <v>1.02788302330677E-2</v>
       </c>
     </row>
@@ -14164,19 +14164,19 @@
       <c r="E41" s="13">
         <v>1.16863170056</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="16">
         <v>1</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="16">
         <v>4.71760013955198E-3</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="16">
         <v>0.60476762820499996</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="16">
         <v>3.3896614650300001</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="16">
         <v>9.8525988006139906E-3</v>
       </c>
     </row>
@@ -14196,19 +14196,19 @@
       <c r="E42" s="13">
         <v>1.2294800101900001</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="16">
         <v>1</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="16">
         <v>4.3524609695018103E-3</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="16">
         <v>0.60576923076900002</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="16">
         <v>3.4786113325799999</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="16">
         <v>9.4374834480426308E-3</v>
       </c>
     </row>
@@ -14228,19 +14228,19 @@
       <c r="E43" s="13">
         <v>1.27870923491</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="16">
         <v>1</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="16">
         <v>3.8776714140108001E-3</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="16">
         <v>0.59385016025600001</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="16">
         <v>3.8133792090099998</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="16">
         <v>9.1130130268186199E-3</v>
       </c>
     </row>
@@ -14260,19 +14260,19 @@
       <c r="E44" s="13">
         <v>1.3144418708000001</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="16">
         <v>1</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="16">
         <v>3.4997395302971499E-3</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="16">
         <v>0.60286458333299997</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="16">
         <v>3.7751748729000001</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="16">
         <v>8.7368794332912201E-3</v>
       </c>
     </row>
@@ -14459,7 +14459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86E0CD3-B812-4FB7-9688-25F230E75795}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -14469,96 +14469,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="19"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
@@ -14657,19 +14657,19 @@
       <c r="N5" s="13">
         <v>2.1646364957899999</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="16">
         <v>0.221975160256</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="16">
         <v>2.0156677160507499</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="16">
         <v>0.26993189102600001</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="16">
         <v>1.84631439967</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="16">
         <v>1.16280284470203E-2</v>
       </c>
       <c r="T5" s="13"/>
@@ -14719,19 +14719,19 @@
       <c r="N6" s="13">
         <v>1.9841331579699999</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="16">
         <v>0.33519631410299999</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="16">
         <v>1.6865344010866601</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="16">
         <v>0.32391826923099998</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="16">
         <v>1.7234961344599999</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="16">
         <v>1.6059451468705601E-2</v>
       </c>
       <c r="T6" s="13"/>
@@ -14781,19 +14781,19 @@
       <c r="N7" s="13">
         <v>1.9072568722300001</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="16">
         <v>0.40661057692300001</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="16">
         <v>1.5384306681461799</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="16">
         <v>0.40604967948699999</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="16">
         <v>1.5374876199600001</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="16">
         <v>2.2775263224169599E-4</v>
       </c>
       <c r="T7" s="13"/>
@@ -14843,19 +14843,19 @@
       <c r="N8" s="13">
         <v>1.84565362564</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="16">
         <v>0.42834535256400003</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="16">
         <v>1.48672886506105</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="16">
         <v>0.411157852564</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="16">
         <v>1.5177294260400001</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="16">
         <v>4.6450980676049297E-3</v>
       </c>
       <c r="T8" s="13"/>
@@ -14905,19 +14905,19 @@
       <c r="N9" s="13">
         <v>1.8055884226800001</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="16">
         <v>0.45226362179500001</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="16">
         <v>1.43859919462448</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="16">
         <v>0.427884615385</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="16">
         <v>1.49777388573</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="16">
         <v>7.6251798111656704E-3</v>
       </c>
       <c r="T9" s="13"/>
@@ -14967,19 +14967,19 @@
       <c r="N10" s="13">
         <v>1.7713105067199999</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="16">
         <v>0.47720352564099999</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="16">
         <v>1.39100851706969</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="16">
         <v>0.45252403846200001</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="16">
         <v>1.44012813385</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="16">
         <v>7.0963548765927602E-3</v>
       </c>
       <c r="T10" s="13"/>
@@ -15029,19 +15029,19 @@
       <c r="N11" s="13">
         <v>1.73146483531</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="16">
         <v>0.49739583333300003</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="16">
         <v>1.35927687058082</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="16">
         <v>0.479467147436</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="16">
         <v>1.38602589338</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="16">
         <v>4.1528148412704401E-5</v>
       </c>
       <c r="T11" s="13"/>
@@ -15091,19 +15091,19 @@
       <c r="N12" s="13">
         <v>1.7080327883699999</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="16">
         <v>0.49423076923100001</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="16">
         <v>1.3648745011060599</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="16">
         <v>0.47115384615400002</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="16">
         <v>1.4025543194600001</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="16">
         <v>3.04520562416315E-3</v>
       </c>
       <c r="T12" s="13"/>
@@ -15153,19 +15153,19 @@
       <c r="N13" s="13">
         <v>1.68102979354</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="16">
         <v>0.50368589743600001</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="16">
         <v>1.34060739431625</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="16">
         <v>0.47876602564100001</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="16">
         <v>1.3865336302</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="16">
         <v>2.7884765240866602E-3</v>
       </c>
       <c r="T13" s="13"/>
@@ -15215,19 +15215,19 @@
       <c r="N14" s="13">
         <v>1.6545843650100001</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="16">
         <v>0.51001602564100001</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="16">
         <v>1.33525707354912</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="16">
         <v>0.49308894230799999</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="16">
         <v>1.36572433129</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="16">
         <v>3.21388915734365E-4</v>
       </c>
       <c r="T14" s="13"/>
@@ -15277,19 +15277,19 @@
       <c r="N15" s="13">
         <v>1.6460861150999999</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="16">
         <v>0.52868589743600003</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="16">
         <v>1.2890368589988099</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="16">
         <v>0.48948317307700001</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="16">
         <v>1.4021764351799999</v>
       </c>
-      <c r="S15" s="19">
+      <c r="S15" s="16">
         <v>5.7375902435127602E-3</v>
       </c>
       <c r="T15" s="13"/>
@@ -15339,19 +15339,19 @@
       <c r="N16" s="13">
         <v>1.63215664717</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="16">
         <v>0.54276842948699999</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="16">
         <v>1.2550433421746201</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="16">
         <v>0.48998397435899999</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="16">
         <v>1.42418606465</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="16">
         <v>6.6975656447037998E-3</v>
       </c>
       <c r="T16" s="13"/>
@@ -15401,19 +15401,19 @@
       <c r="N17" s="13">
         <v>1.6015270367600001</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="16">
         <v>0.53804086538499996</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="16">
         <v>1.26105521214314</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="16">
         <v>0.52213541666700003</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="16">
         <v>1.2974192118000001</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S17" s="16">
         <v>1.4397649870105001E-3</v>
       </c>
       <c r="T17" s="13"/>
@@ -15463,19 +15463,19 @@
       <c r="N18" s="13">
         <v>1.6185782689299999</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="16">
         <v>0.54168669871800001</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="16">
         <v>1.2578961494641401</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="16">
         <v>0.52574118589700003</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="16">
         <v>1.2840046485300001</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="16">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="T18" s="13"/>
@@ -15525,19 +15525,19 @@
       <c r="N19" s="13">
         <v>1.5605123807200001</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="16">
         <v>0.54054487179499999</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="16">
         <v>1.2608265711711</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="16">
         <v>0.52894631410299997</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R19" s="16">
         <v>1.2871740995300001</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="16">
         <v>9.0946793849021096E-4</v>
       </c>
       <c r="T19" s="13"/>
@@ -15587,19 +15587,19 @@
       <c r="N20" s="13">
         <v>1.55334002238</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="16">
         <v>0.554266826923</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="16">
         <v>1.2323128795012399</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="16">
         <v>0.47896634615400002</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="16">
         <v>1.4589618933499999</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="16">
         <v>4.80745185855379E-2</v>
       </c>
       <c r="T20" s="13"/>
@@ -15649,19 +15649,19 @@
       <c r="N21" s="13">
         <v>1.5361836170500001</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="16">
         <v>0.63557692307699998</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="16">
         <v>1.0352677320822601</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="16">
         <v>0.55779246794899995</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="16">
         <v>1.2859401611200001</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="16">
         <v>4.8881266358497003E-2</v>
       </c>
       <c r="T21" s="13"/>
@@ -15711,19 +15711,19 @@
       <c r="N22" s="13">
         <v>1.5096805309600001</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="16">
         <v>0.68419471153800004</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="16">
         <v>0.92151884665855999</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="16">
         <v>0.53044871794899995</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R22" s="16">
         <v>1.35961507223</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22" s="16">
         <v>4.93965850102807E-2</v>
       </c>
       <c r="T22" s="13"/>
@@ -15773,19 +15773,19 @@
       <c r="N23" s="13">
         <v>1.5154980818399999</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="16">
         <v>0.72015224358999996</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="16">
         <v>0.82481368932968502</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="16">
         <v>0.58794070512800001</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="16">
         <v>1.2169865339199999</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S23" s="16">
         <v>5.2566464932328E-2</v>
       </c>
       <c r="T23" s="13"/>
@@ -15835,19 +15835,19 @@
       <c r="N24" s="13">
         <v>1.48544821067</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="16">
         <v>0.75328525640999999</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="16">
         <v>0.75083393133603604</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="16">
         <v>0.59094551282100005</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24" s="16">
         <v>1.1915723146499999</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="16">
         <v>5.2471972296712799E-2</v>
       </c>
       <c r="T24" s="13"/>
@@ -15897,19 +15897,19 @@
       <c r="N25" s="13">
         <v>1.5000584431199999</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="16">
         <v>0.78147035256399999</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="16">
         <v>0.67524459912226698</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="16">
         <v>0.61097756410299997</v>
       </c>
-      <c r="R25" s="19">
+      <c r="R25" s="16">
         <v>1.1676046145300001</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25" s="16">
         <v>5.1804583497512997E-2</v>
       </c>
       <c r="T25" s="13"/>
@@ -15959,19 +15959,19 @@
       <c r="N26" s="13">
         <v>1.4562631753799999</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="16">
         <v>0.803425480769</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="16">
         <v>0.62269546924493202</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="16">
         <v>0.63010817307699996</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="16">
         <v>1.1444340042600001</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="16">
         <v>5.15980181618034E-2</v>
       </c>
       <c r="T26" s="13"/>
@@ -16021,19 +16021,19 @@
       <c r="N27" s="13">
         <v>1.4472361191700001</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27" s="16">
         <v>0.82441907051300001</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="16">
         <v>0.56826047668090196</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="16">
         <v>0.63832131410299997</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="16">
         <v>1.10132935108</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27" s="16">
         <v>5.3929684027126001E-2</v>
       </c>
       <c r="T27" s="13"/>
@@ -16083,19 +16083,19 @@
       <c r="N28" s="13">
         <v>1.4497384230299999</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="16">
         <v>0.841646634615</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="16">
         <v>0.52606703195816396</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="16">
         <v>0.64563301282100005</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="16">
         <v>1.0986084938</v>
       </c>
-      <c r="S28" s="19">
+      <c r="S28" s="16">
         <v>5.3575393781359198E-2</v>
       </c>
       <c r="T28" s="13"/>
@@ -16145,19 +16145,19 @@
       <c r="N29" s="13">
         <v>1.4343362099100001</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="16">
         <v>0.85699118589699996</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="16">
         <v>0.485106830872022</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="16">
         <v>0.66416266025600001</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R29" s="16">
         <v>1.0645234156900001</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="16">
         <v>5.3187852642335803E-2</v>
       </c>
       <c r="T29" s="13"/>
@@ -16207,19 +16207,19 @@
       <c r="N30" s="13">
         <v>1.4458362169800001</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="16">
         <v>0.87385817307699998</v>
       </c>
-      <c r="P30" s="19">
+      <c r="P30" s="16">
         <v>0.44430979337447701</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q30" s="16">
         <v>0.66316105769199996</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R30" s="16">
         <v>1.0951502185599999</v>
       </c>
-      <c r="S30" s="19">
+      <c r="S30" s="16">
         <v>5.2902025653496297E-2</v>
       </c>
       <c r="T30" s="13"/>
@@ -16269,19 +16269,19 @@
       <c r="N31" s="13">
         <v>1.4160776016000001</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="16">
         <v>0.88575721153800002</v>
       </c>
-      <c r="P31" s="19">
+      <c r="P31" s="16">
         <v>0.414746991946147</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q31" s="16">
         <v>0.67077323717899995</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R31" s="16">
         <v>1.05518192359</v>
       </c>
-      <c r="S31" s="19">
+      <c r="S31" s="16">
         <v>5.2671765046112699E-2</v>
       </c>
       <c r="T31" s="13"/>
@@ -16331,19 +16331,19 @@
       <c r="N32" s="13">
         <v>1.39572497515</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="16">
         <v>0.89835737179499997</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P32" s="16">
         <v>0.38489473232856097</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="16">
         <v>0.65895432692300004</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="16">
         <v>1.15140359371</v>
       </c>
-      <c r="S32" s="19">
+      <c r="S32" s="16">
         <v>5.2457201482804999E-2</v>
       </c>
       <c r="T32" s="13"/>
@@ -16393,19 +16393,19 @@
       <c r="N33" s="13">
         <v>1.3816632368599999</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="16">
         <v>0.907091346154</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P33" s="16">
         <v>0.354261884475365</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="Q33" s="16">
         <v>0.67147435897399999</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="16">
         <v>1.10498789946</v>
       </c>
-      <c r="S33" s="19">
+      <c r="S33" s="16">
         <v>5.2144495248971502E-2</v>
       </c>
       <c r="T33" s="13"/>
@@ -16455,19 +16455,19 @@
       <c r="N34" s="13">
         <v>1.4011530692800001</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="16">
         <v>0.91514423076899998</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="16">
         <v>0.32712242144804698</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="16">
         <v>0.66937099358999996</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R34" s="16">
         <v>1.11317924811</v>
       </c>
-      <c r="S34" s="19">
+      <c r="S34" s="16">
         <v>5.2067562065489403E-2</v>
       </c>
       <c r="T34" s="13"/>
@@ -16517,19 +16517,19 @@
       <c r="N35" s="13">
         <v>1.39386822933</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="16">
         <v>0.92401842948699997</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="16">
         <v>0.31071876447934299</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="16">
         <v>0.67848557692300004</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R35" s="16">
         <v>1.12824343565</v>
       </c>
-      <c r="S35" s="19">
+      <c r="S35" s="16">
         <v>5.1700949925912301E-2</v>
       </c>
       <c r="T35" s="13"/>
@@ -16579,19 +16579,19 @@
       <c r="N36" s="13">
         <v>1.34330851604</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="16">
         <v>0.93231169871800001</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="16">
         <v>0.28691453154270402</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="16">
         <v>0.70042067307699996</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R36" s="16">
         <v>1.0278451014800001</v>
       </c>
-      <c r="S36" s="19">
+      <c r="S36" s="16">
         <v>5.1426120390074097E-2</v>
       </c>
       <c r="T36" s="13"/>
@@ -16641,19 +16641,19 @@
       <c r="N37" s="13">
         <v>1.3635089489100001</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="16">
         <v>0.93910256410299997</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P37" s="16">
         <v>0.26454328466684301</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="Q37" s="16">
         <v>0.70432692307699996</v>
       </c>
-      <c r="R37" s="19">
+      <c r="R37" s="16">
         <v>1.04965503705</v>
       </c>
-      <c r="S37" s="19">
+      <c r="S37" s="16">
         <v>5.0919205694571597E-2</v>
       </c>
       <c r="T37" s="13"/>
@@ -16703,19 +16703,19 @@
       <c r="N38" s="13">
         <v>1.3199300276899999</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O38" s="16">
         <v>0.94435096153800002</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P38" s="16">
         <v>0.24811048095042801</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="Q38" s="16">
         <v>0.69771634615400002</v>
       </c>
-      <c r="R38" s="19">
+      <c r="R38" s="16">
         <v>1.08138364401</v>
       </c>
-      <c r="S38" s="19">
+      <c r="S38" s="16">
         <v>5.05967940703866E-2</v>
       </c>
       <c r="T38" s="13"/>
@@ -16765,19 +16765,19 @@
       <c r="N39" s="13">
         <v>1.3066290464200001</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="16">
         <v>0.95040064102599997</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="16">
         <v>0.23219013015429099</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="16">
         <v>0.68469551282100005</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R39" s="16">
         <v>1.14646346905</v>
       </c>
-      <c r="S39" s="19">
+      <c r="S39" s="16">
         <v>5.2284688062590297E-2</v>
       </c>
       <c r="T39" s="13"/>
@@ -16827,19 +16827,19 @@
       <c r="N40" s="13">
         <v>1.29212878912</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O40" s="16">
         <v>0.95574919871800001</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="16">
         <v>0.21263260505138201</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="Q40" s="16">
         <v>0.69080528846199996</v>
       </c>
-      <c r="R40" s="19">
+      <c r="R40" s="16">
         <v>1.14393676397</v>
       </c>
-      <c r="S40" s="19">
+      <c r="S40" s="16">
         <v>5.1896470750986301E-2</v>
       </c>
       <c r="T40" s="13"/>
@@ -16889,19 +16889,19 @@
       <c r="N41" s="13">
         <v>1.2913736899699999</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O41" s="16">
         <v>0.95993589743600005</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P41" s="16">
         <v>0.201027588584484</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="16">
         <v>0.69150641025600001</v>
       </c>
-      <c r="R41" s="19">
+      <c r="R41" s="16">
         <v>1.1390857910500001</v>
       </c>
-      <c r="S41" s="19">
+      <c r="S41" s="16">
         <v>5.15587739516205E-2</v>
       </c>
       <c r="T41" s="13"/>
@@ -16951,19 +16951,19 @@
       <c r="N42" s="13">
         <v>1.3120577824399999</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="16">
         <v>0.96250000000000002</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P42" s="16">
         <v>0.186759224457618</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q42" s="16">
         <v>0.69941907051300001</v>
       </c>
-      <c r="R42" s="19">
+      <c r="R42" s="16">
         <v>1.11583924141</v>
       </c>
-      <c r="S42" s="19">
+      <c r="S42" s="16">
         <v>5.09834736494654E-2</v>
       </c>
       <c r="T42" s="13"/>
@@ -17013,19 +17013,19 @@
       <c r="N43" s="13">
         <v>1.2879465940699999</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O43" s="16">
         <v>0.96676682692299998</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P43" s="16">
         <v>0.172667458156744</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q43" s="16">
         <v>0.70112179487199999</v>
       </c>
-      <c r="R43" s="19">
+      <c r="R43" s="16">
         <v>1.15443013112</v>
       </c>
-      <c r="S43" s="19">
+      <c r="S43" s="16">
         <v>5.03563577335902E-2</v>
       </c>
       <c r="T43" s="13"/>
@@ -17075,19 +17075,19 @@
       <c r="N44" s="13">
         <v>1.32955936896</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="16">
         <v>0.96975160256399995</v>
       </c>
-      <c r="P44" s="19">
+      <c r="P44" s="16">
         <v>0.16102684300679401</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="Q44" s="16">
         <v>0.68980368589700003</v>
       </c>
-      <c r="R44" s="19">
+      <c r="R44" s="16">
         <v>1.18839742281</v>
       </c>
-      <c r="S44" s="19">
+      <c r="S44" s="16">
         <v>4.9868467141906E-2</v>
       </c>
       <c r="T44" s="13"/>
@@ -17137,19 +17137,19 @@
       <c r="N45" s="13">
         <v>1.2596358519299999</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="16">
         <v>0.97205528846199996</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P45" s="16">
         <v>0.151328392403248</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="Q45" s="16">
         <v>0.68920272435899999</v>
       </c>
-      <c r="R45" s="19">
+      <c r="R45" s="16">
         <v>1.1947148564500001</v>
       </c>
-      <c r="S45" s="19">
+      <c r="S45" s="16">
         <v>4.9221343552520697E-2</v>
       </c>
       <c r="T45" s="13"/>

--- a/pytorch/results/official_results_cifar.xlsx
+++ b/pytorch/results/official_results_cifar.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{118AFF40-6C83-45A5-9190-047534BA43E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" activeTab="1" xr2:uid="{118AFF40-6C83-45A5-9190-047534BA43E9}"/>
   </bookViews>
   <sheets>
     <sheet name="LeNet 32" sheetId="2" r:id="rId1"/>
-    <sheet name="ResNet-18 D 256" sheetId="1" r:id="rId2"/>
+    <sheet name="LeNet 32 D" sheetId="4" r:id="rId2"/>
+    <sheet name="ResNet-18 D 256" sheetId="1" r:id="rId3"/>
+    <sheet name="Cifar-100" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
   <si>
     <t>EPSILON=1e-5</t>
   </si>
@@ -52,6 +54,9 @@
   </si>
   <si>
     <t>LR</t>
+  </si>
+  <si>
+    <t>LR=0.1</t>
   </si>
 </sst>
 </file>
@@ -171,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,6 +222,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12905,8 +12916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C14C0C-1811-40C8-998C-36FEA773D26D}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12915,59 +12926,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -14456,11 +14467,1685 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE2239E-AF63-44F9-8006-468C4E315896}">
+  <dimension ref="A1:J64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.14510643405900001</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2.26184598416586</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.19681490384600001</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2.16550467259</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.24129721510900001</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2.0164199202833002</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.30538862179499998</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1.83341707442</v>
+      </c>
+      <c r="J5" s="16">
+        <v>3.9091907687613097E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.225352112676</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2.0718426274734298</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.23737980769200001</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2.0046508724900001</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.404109314981</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.6209793473938501</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.41846955128199997</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1.5849910168300001</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1.0551727955965299E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.27678857234300003</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.91531711564937</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.27954727564100001</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.9002668326500001</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.54955585787500005</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1.3081158570153399</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.39483173076900002</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.74633352917</v>
+      </c>
+      <c r="J7" s="16">
+        <v>6.8758809794966694E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.32582426376399998</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1.80984476884104</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.33453525640999998</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1.7695422669300001</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.672055057618</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1.02228520385129</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.46734775640999998</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1.62528855258</v>
+      </c>
+      <c r="J8" s="16">
+        <v>7.6297006478786206E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.37127880921900003</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1.73091896998287</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.37479967948699999</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1.68212615794</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.69206145966699995</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.97500913287781199</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.48978365384599998</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.5042040649899999</v>
+      </c>
+      <c r="J9" s="16">
+        <v>8.1723968491976107E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.41065140845100001</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1.6557728900036299</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.40094150640999998</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1.63949281627</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.69328185019199995</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.96028038027497098</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.48868189102600001</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1.628306872</v>
+      </c>
+      <c r="J10" s="16">
+        <v>9.07407270100139E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.43802016645300001</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1.60329986832053</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.41256009615400002</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1.6090862002099999</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.61103553137</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1.1790116303403599</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.55118189102600001</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1.35248177021</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1.23692885718112E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.45876680537800002</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1.55517851726346</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.436698717949</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1.54431177829</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.652448783611</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1.03512802924221</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.576322115385</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1.2785271983099999</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1.31677123010137E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.47641245198499999</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1.5083556774331099</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.45843349359000002</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1.50106808543</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.64086507682500005</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1.0641405147985601</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.58844150641000004</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1.2839755161799999</v>
+      </c>
+      <c r="J13" s="16">
+        <v>1.03952114959284E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.49271766965399999</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1.4756206385075801</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.45893429487199999</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.48961911217</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.670954705506</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.98266352031966597</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.58253205128200003</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1.28148663426</v>
+      </c>
+      <c r="J14" s="16">
+        <v>1.3264637111629399E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.50786251600499999</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1.45111501686246</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.47916666666699997</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1.4388005206200001</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.70498559539100003</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.89940697637776501</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.56590544871799997</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1.31121139343</v>
+      </c>
+      <c r="J15" s="16">
+        <v>3.0633347107299098E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.52196702944899998</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1.4164304197139801</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.48768028846200001</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.42126574329</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.70782650448100004</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.875285098651154</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.57011217948699999</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1.3327930403399999</v>
+      </c>
+      <c r="J16" s="16">
+        <v>2.96468385704486E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.52980953905200001</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1.3930936809843799</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.50530849358999996</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1.3894307103300001</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.69986395646599997</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.90466151555353702</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.57491987179500004</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1.3408797261000001</v>
+      </c>
+      <c r="J17" s="16">
+        <v>3.1523062130044202E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.54383402688899996</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1.37254765583977</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.49308894230799999</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.4134682944200001</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.72865316901400001</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.84891195434995803</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.56280048076900002</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1.4016958100700001</v>
+      </c>
+      <c r="J18" s="16">
+        <v>4.4880688614756699E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.55449743918100003</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1.3475959335338099</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.50741185897399999</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1.3826829514100001</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.72539212547999998</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.84397117375716901</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.56770833333299997</v>
+      </c>
+      <c r="I19" s="16">
+        <v>1.3768372146000001</v>
+      </c>
+      <c r="J19" s="16">
+        <v>4.3757998094758298E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.56049935979499999</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1.3275726927532501</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.52263621794899995</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1.34651122739</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.73329465428899998</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.84146199801819799</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.55859375</v>
+      </c>
+      <c r="I20" s="16">
+        <v>1.45998709248</v>
+      </c>
+      <c r="J20" s="16">
+        <v>5.8732970628949603E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.56892205505799998</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1.30453776897297</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.52974759615400002</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1.32486749593</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.72505201664499996</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.85293567253135905</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.55829326923099998</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1.45196303133</v>
+      </c>
+      <c r="J21" s="16">
+        <v>5.0273039309752E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0.57640444942400004</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1.2884158581762399</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.53285256410299997</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1.3268366230599999</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.72663252240700005</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0.84593510841438002</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.50711137820499996</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1.76619080874</v>
+      </c>
+      <c r="J22" s="16">
+        <v>6.3115832740891997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.58472711267599997</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1.2725780628402099</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.52834535256399995</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1.33466789337</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.72047055057599996</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.87631083586075498</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.53024839743600005</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1.5034372414899999</v>
+      </c>
+      <c r="J23" s="16">
+        <v>6.8397222673121205E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0.59344990396899999</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1.2596267062631601</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.53635817307699996</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1.3254025173499999</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.71070742637600004</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.91032900181378296</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.52413862179500004</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1.6398380049100001</v>
+      </c>
+      <c r="J24" s="16">
+        <v>7.6695230135215106E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0.596891005122</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1.24177057993396</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.53515625</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.3437512891400001</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.70684619078099997</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.92342644496779103</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.51592548076900002</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1.6258188659899999</v>
+      </c>
+      <c r="J25" s="16">
+        <v>6.7968610218666098E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0.60261283610799998</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1.2269385732548099</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.54947916666700003</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1.27136923946</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.70334507042299999</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.91032201089871201</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.57141426282100005</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1.3945520090400001</v>
+      </c>
+      <c r="J26" s="16">
+        <v>3.4442008871982198E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0.60525368117800005</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1.21220403528091</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.53806089743600005</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1.3239955890599999</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.70372519206100004</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.91608189485213498</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.49469150640999998</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1.7795059146000001</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.10046006180528499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.61063540332900001</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1.20089788519313</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.55669070512800001</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1.2708546823</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.671694942382</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1.0380681002185801</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.48497596153799999</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1.8092805431800001</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.115267345548436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0.61905809859200001</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1.1911296409849299</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.55498798076900002</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1.2713764029100001</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.64622679257399995</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1.1210458399239001</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.47746394230799999</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1.7286786566900001</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.110240808857286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0.62287932138299995</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1.1748765245289801</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.55398637820499996</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1.28725730532</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.62664052496800005</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1.17058817405019</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.41947115384599998</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1.84721624202</v>
+      </c>
+      <c r="J30" s="16">
+        <v>9.6656880133127093E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0.62776088348299997</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1.16473026457272</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0.57151442307699996</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1.23975212872</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0.63550336107600003</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1.1245745650746599</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.51392227564100001</v>
+      </c>
+      <c r="I31" s="16">
+        <v>1.61138529216</v>
+      </c>
+      <c r="J31" s="16">
+        <v>7.0578733885360997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0.63200224071699995</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1.15104408098549</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.54807692307699996</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1.36475261186</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0.65725032010200002</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1.04179131845429</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.53976362179500004</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1.5337669620100001</v>
+      </c>
+      <c r="J32" s="16">
+        <v>5.6440450339107197E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0.63546334827100004</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1.14651540665864</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0.56550480769199996</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1.2686650453099999</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.66783370678599996</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1.0261298189471499</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.51332131410299997</v>
+      </c>
+      <c r="I33" s="16">
+        <v>1.73118411253</v>
+      </c>
+      <c r="J33" s="16">
+        <v>8.0001346861594005E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="16">
+        <v>0.63858434699099997</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1.1327923081443101</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.58623798076900002</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1.2139722559699999</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0.64756722151099999</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1.07279132659548</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.56720753205100005</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1.4046535877799999</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1.1799374447763701E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="16">
+        <v>0.64314580665800003</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1.12640051026655</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0.57181490384599998</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1.2359599377499999</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.67647647247099996</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.96961081047064201</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0.55068108974399999</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1.4496574682700001</v>
+      </c>
+      <c r="J35" s="16">
+        <v>2.5666853554370601E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+      <c r="B36" s="16">
+        <v>0.64448623559499996</v>
+      </c>
+      <c r="C36" s="16">
+        <v>1.1145937509558099</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0.57732371794899995</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1.21900312029</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0.658870838668</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1.03231691804722</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0.59034455128200003</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1.3309000789700001</v>
+      </c>
+      <c r="J36" s="16">
+        <v>7.0171765245869702E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="16">
+        <v>0.64660691421299998</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1.11300214789283</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0.57051282051300001</v>
+      </c>
+      <c r="E37" s="16">
+        <v>1.25859600974</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.67159491037100005</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0.99013941695915997</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.58373397435899999</v>
+      </c>
+      <c r="I37" s="16">
+        <v>1.3810553012</v>
+      </c>
+      <c r="J37" s="16">
+        <v>8.0737560655539595E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="16">
+        <v>0.65120838668400005</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1.0976127162098701</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.58723958333299997</v>
+      </c>
+      <c r="E38" s="16">
+        <v>1.1880676570599999</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.67097471190799995</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.98108537063937395</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0.58733974358999996</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1.38719656777</v>
+      </c>
+      <c r="J38" s="16">
+        <v>1.32958346917971E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="16">
+        <v>0.65486955825899995</v>
+      </c>
+      <c r="C39" s="16">
+        <v>1.0949081121806701</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0.58473557692300004</v>
+      </c>
+      <c r="E39" s="16">
+        <v>1.21449021346</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.68577944942400004</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.94509736890218898</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.57682291666700003</v>
+      </c>
+      <c r="I39" s="16">
+        <v>1.37215811071</v>
+      </c>
+      <c r="J39" s="16">
+        <v>1.2873967174057799E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="16">
+        <v>0.65350912291899999</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1.0824999694405899</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0.57401842948699999</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1.2475625402699999</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0.68223831626099996</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0.96732623394335404</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.47986778846200001</v>
+      </c>
+      <c r="I40" s="16">
+        <v>1.7358514166000001</v>
+      </c>
+      <c r="J40" s="16">
+        <v>7.8188113166208703E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="16">
+        <v>0.65911091549300005</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1.08011224904072</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0.58543669871799997</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1.21679468739</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.67173495518600002</v>
+      </c>
+      <c r="G41" s="16">
+        <v>1.0159141686715101</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0.52203525641000004</v>
+      </c>
+      <c r="I41" s="16">
+        <v>1.60022980319</v>
+      </c>
+      <c r="J41" s="16">
+        <v>6.7214809762347005E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="16">
+        <v>0.65967109474999996</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1.0750785155195499</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0.59294871794899995</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1.2121166457000001</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0.67683658770800004</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0.979429082227119</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0.556490384615</v>
+      </c>
+      <c r="I42" s="16">
+        <v>1.5495003652899999</v>
+      </c>
+      <c r="J42" s="16">
+        <v>3.7978578580166698E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="16">
+        <v>0.66281209987199996</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1.0665288861750299</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0.58263221153800004</v>
+      </c>
+      <c r="E43" s="16">
+        <v>1.2293598325199999</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0.69110115236900005</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.93716087229502099</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0.55378605769199996</v>
+      </c>
+      <c r="I43" s="16">
+        <v>1.5070975889</v>
+      </c>
+      <c r="J43" s="16">
+        <v>4.2816369693587E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="16">
+        <v>0.66663332266300002</v>
+      </c>
+      <c r="C44" s="16">
+        <v>1.0614666798355901</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0.59334935897399999</v>
+      </c>
+      <c r="E44" s="16">
+        <v>1.1989178122599999</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0.69624279769499997</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0.91775946324827096</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0.55238381410299997</v>
+      </c>
+      <c r="I44" s="16">
+        <v>1.6223567808299999</v>
+      </c>
+      <c r="J44" s="16">
+        <v>5.6832297982060603E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>41</v>
+      </c>
+      <c r="B45" s="16">
+        <v>0.66657330345700005</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1.0515034583023899</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0.58894230769199996</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1.20362024296</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0.68735995518600002</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.97101329366238798</v>
+      </c>
+      <c r="H45" s="16">
+        <v>0.501802884615</v>
+      </c>
+      <c r="I45" s="16">
+        <v>1.73310504204</v>
+      </c>
+      <c r="J45" s="16">
+        <v>8.9583630683179399E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>42</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.66883402688899996</v>
+      </c>
+      <c r="C46" s="16">
+        <v>1.0488855033998401</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0.59635416666700003</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1.20162228762</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0.64142525608199996</v>
+      </c>
+      <c r="G46" s="16">
+        <v>1.15103099833835</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0.39693509615400002</v>
+      </c>
+      <c r="I46" s="16">
+        <v>2.0149119553700001</v>
+      </c>
+      <c r="J46" s="16">
+        <v>9.5571988761636403E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>43</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.67143485915500001</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1.04340081874677</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0.59775641025600001</v>
+      </c>
+      <c r="E47" s="16">
+        <v>1.1953566594</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0.62201904609500003</v>
+      </c>
+      <c r="G47" s="16">
+        <v>1.1819659244846199</v>
+      </c>
+      <c r="H47" s="16">
+        <v>0.47335737179499998</v>
+      </c>
+      <c r="I47" s="16">
+        <v>1.77213546939</v>
+      </c>
+      <c r="J47" s="16">
+        <v>8.3665812212417701E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>44</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.67073463508300002</v>
+      </c>
+      <c r="C48" s="16">
+        <v>1.03910952323759</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.58603766025600001</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1.23539304867</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.64004481434100002</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1.10883546987889</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0.53195112179500004</v>
+      </c>
+      <c r="I48" s="16">
+        <v>1.60456561183</v>
+      </c>
+      <c r="J48" s="16">
+        <v>4.2182879639757198E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>45</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.672795294494</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1.0344022926462999</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0.59745592948699999</v>
+      </c>
+      <c r="E49" s="16">
+        <v>1.18197357464</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0.66649327784900003</v>
+      </c>
+      <c r="G49" s="16">
+        <v>1.0078019577623401</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0.55809294871799997</v>
+      </c>
+      <c r="I49" s="16">
+        <v>1.4720922616800001</v>
+      </c>
+      <c r="J49" s="16">
+        <v>3.4424197804256998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>46</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.67529609474999996</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1.03067569205687</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0.57461939102600001</v>
+      </c>
+      <c r="E50" s="16">
+        <v>1.2684836874800001</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0.59799135723399999</v>
+      </c>
+      <c r="G50" s="16">
+        <v>1.26479333761254</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0.51832932692300004</v>
+      </c>
+      <c r="I50" s="16">
+        <v>1.5291074413100001</v>
+      </c>
+      <c r="J50" s="16">
+        <v>5.18320072328194E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>47</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.67843709987199996</v>
+      </c>
+      <c r="C51" s="16">
+        <v>1.02698540994742</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.59495192307699996</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1.20544633785</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>48</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86E0CD3-B812-4FB7-9688-25F230E75795}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14469,96 +16154,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="B1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="19"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
@@ -17659,4 +19348,1710 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8F9FE8-B4A8-4BD2-8B5D-9F6CB9B387A3}">
+  <dimension ref="A1:J64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2.5641025641000001E-2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>4.5347455342610603</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3.1550480769200001E-2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4.3734358151799997</v>
+      </c>
+      <c r="F5" s="16">
+        <v>7.9226762820499994E-2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4.0705970324002703</v>
+      </c>
+      <c r="H5" s="16">
+        <v>7.3818108974399999E-2</v>
+      </c>
+      <c r="I5" s="16">
+        <v>4.0118242654999996</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.108724079490377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16">
+        <v>4.5412660256399999E-2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4.2785762102175902</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4.1566506410299998E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4.2073851365300001</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.16836939102599999</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3.46708128635699</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.10356570512799999</v>
+      </c>
+      <c r="I6" s="16">
+        <v>3.84528059226</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.108921464347792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16">
+        <v>6.3721955128200003E-2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4.1233461966881304</v>
+      </c>
+      <c r="D7" s="16">
+        <v>6.0997596153800002E-2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4.0737626491399999</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.231810897436</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3.1409998771471801</v>
+      </c>
+      <c r="H7" s="16">
+        <v>9.8657852564099993E-2</v>
+      </c>
+      <c r="I7" s="16">
+        <v>4.0221698589799999</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.108896065549299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16">
+        <v>8.41947115385E-2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>3.9928630559872298</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7.7624198717899995E-2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3.9522781677699999</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.28491586538500002</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2.8737026287959102</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.16386217948699999</v>
+      </c>
+      <c r="I8" s="16">
+        <v>3.4727762968100002</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.108903872309139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.102884615385</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3.8789594576908901</v>
+      </c>
+      <c r="D9" s="16">
+        <v>9.1646634615399999E-2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3.8360089950099998</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.33499599358999999</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2.6559893424694301</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.19381009615399999</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3.3516553059600001</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.108843967672445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.123758012821</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3.78068624765445</v>
+      </c>
+      <c r="D10" s="16">
+        <v>9.7055288461499994E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3.7962086689799999</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.37397836538500001</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2.46540869932908</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.21724759615399999</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3.1448073326000001</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.108531313344816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.13551682692299999</v>
+      </c>
+      <c r="C11" s="16">
+        <v>3.6960832999302702</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.110677083333</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3.71779820247</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.41408253205099999</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2.3027019733037699</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.22856570512800001</v>
+      </c>
+      <c r="I11" s="16">
+        <v>3.1692753877399999</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.108263313339463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.151161858974</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3.6199417260976898</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.12640224358999999</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3.6120090973700001</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.449599358974</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2.1600909868876101</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.25150240384599998</v>
+      </c>
+      <c r="I12" s="16">
+        <v>3.0693132571700001</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.10824120153743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.16430288461500001</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3.5469366587125299</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.13671875</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3.5944763697100002</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.48209134615400001</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2.0104412225576498</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.260717147436</v>
+      </c>
+      <c r="I13" s="16">
+        <v>3.0430512978499999</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.108008987634986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.17956730769199999</v>
+      </c>
+      <c r="C14" s="16">
+        <v>3.4802476944067502</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.143729967949</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3.5043538594900001</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.51470352564099997</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1.8838502755531801</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.26211939102600001</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3.0143476877499999</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.107865764441225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.191025641026</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3.4110655014331499</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.162960737179</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3.4440863560400001</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.551201923077</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1.75791427355546</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.27964743589699997</v>
+      </c>
+      <c r="I15" s="16">
+        <v>3.0372661932899998</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.107709431113959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.20406650640999999</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3.3595005023173798</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.158854166667</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3.4923497591300001</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.58415464743599999</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1.6456185322541399</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.27794471153799999</v>
+      </c>
+      <c r="I16" s="16">
+        <v>3.0791302644299998</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.107618500031396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.217327724359</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3.3031320743071699</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.17878605769200001</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3.3514401362499999</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.61252003205100003</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1.5315211962430899</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.28735977564100001</v>
+      </c>
+      <c r="I17" s="16">
+        <v>3.0085899218500001</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.10738157738663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.22536057692299999</v>
+      </c>
+      <c r="C18" s="16">
+        <v>3.2536668007190399</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.180789262821</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3.3425102723000002</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.64679487179499995</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1.42384391564589</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.29777644230799999</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3.0261263786199999</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.107195324330356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.23367387820499999</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3.2099448142907501</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.17327724358999999</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3.3977578297600002</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.67540064102599995</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1.31800572566497</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.29727564102600001</v>
+      </c>
+      <c r="I19" s="16">
+        <v>3.1277922116800001</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.106936749027763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.24202724359</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3.17092796716934</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.19360977564099999</v>
+      </c>
+      <c r="E20" s="16">
+        <v>3.2758608414600001</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.70747195512799999</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1.2209359957621599</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.28455528846200001</v>
+      </c>
+      <c r="I20" s="16">
+        <v>3.21980436643</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.106720227423156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.25336538461500002</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3.1285654447017501</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.193509615385</v>
+      </c>
+      <c r="E21" s="16">
+        <v>3.2736323246599999</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.73587740384599998</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1.11576108351731</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.30999599359000002</v>
+      </c>
+      <c r="I21" s="16">
+        <v>3.1159743284600001</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.106440543652409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0.25853365384600002</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3.0892386020758198</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.204927884615</v>
+      </c>
+      <c r="E22" s="16">
+        <v>3.2188569032199998</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.76682692307699996</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1.0155916865055299</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.31881009615400002</v>
+      </c>
+      <c r="I22" s="16">
+        <v>3.1370466672499999</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0.106220064889937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.26812900640999998</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3.0491810639699302</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.206229967949</v>
+      </c>
+      <c r="E23" s="16">
+        <v>3.2303306811899999</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.79036458333299997</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0.93383230673961104</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.32461939102600001</v>
+      </c>
+      <c r="I23" s="16">
+        <v>3.1328209669199998</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.10596494404591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0.27584134615400002</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3.0069094132154399</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.21033653846200001</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3.1828873402000002</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.81564503205100003</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.85191355485182496</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.30238381410300003</v>
+      </c>
+      <c r="I24" s="16">
+        <v>3.28566480906</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0.10575009008976601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0.28181089743600002</v>
+      </c>
+      <c r="C25" s="16">
+        <v>2.9766930139981702</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.208333333333</v>
+      </c>
+      <c r="E25" s="16">
+        <v>3.1837476461400001</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.83401442307700002</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.77234228360347201</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.32662259615400002</v>
+      </c>
+      <c r="I25" s="16">
+        <v>3.28121639521</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0.105516679596397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0.29098557692299998</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2.9402546711456998</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.23287259615399999</v>
+      </c>
+      <c r="E26" s="16">
+        <v>3.0692954613599999</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.85372596153799996</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.6885234664648</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.32491987179499998</v>
+      </c>
+      <c r="I26" s="16">
+        <v>3.3937385021100002</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.10512852368983799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0.29695512820499997</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2.91053441365559</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.23317307692299999</v>
+      </c>
+      <c r="E27" s="16">
+        <v>3.08332109451</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.87538060897400005</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.63403573555824</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.321113782051</v>
+      </c>
+      <c r="I27" s="16">
+        <v>3.49885722918</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0.104761850008093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.303846153846</v>
+      </c>
+      <c r="C28" s="16">
+        <v>2.8861483219342299</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.22065304487199999</v>
+      </c>
+      <c r="E28" s="16">
+        <v>3.14482588034</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.888401442308</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.56985697089097398</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.327123397436</v>
+      </c>
+      <c r="I28" s="16">
+        <v>3.49574137345</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.10435738652549199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0.31141826923100002</v>
+      </c>
+      <c r="C29" s="16">
+        <v>2.8543540551112199</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.23527644230799999</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3.0792409517800001</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.90352564102599997</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.50982388548361901</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.326021634615</v>
+      </c>
+      <c r="I29" s="16">
+        <v>3.6011052315100001</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.104133985394141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0.32097355769199998</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2.80891343141213</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.23657852564099999</v>
+      </c>
+      <c r="E30" s="16">
+        <v>3.0923409950999998</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.91340144230800002</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.46273958346782501</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.33042868589699997</v>
+      </c>
+      <c r="I30" s="16">
+        <v>3.6680607062099999</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0.103647303923561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0.32926682692300002</v>
+      </c>
+      <c r="C31" s="16">
+        <v>2.7839420783214002</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0.2421875</v>
+      </c>
+      <c r="E31" s="16">
+        <v>3.0400153856999999</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0.923557692308</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.42140762118192798</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.32281650640999998</v>
+      </c>
+      <c r="I31" s="16">
+        <v>3.8317268750600002</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0.103188682699733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0.33503605769200001</v>
+      </c>
+      <c r="C32" s="16">
+        <v>2.7569084766583498</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0.258613782051</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2.9257077865099999</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0.93183092948699997</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0.38048834403355902</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.32481971153799999</v>
+      </c>
+      <c r="I32" s="16">
+        <v>3.90532489923</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0.10283917580600301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0.34208733974400002</v>
+      </c>
+      <c r="C33" s="16">
+        <v>2.7252682869250902</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0.26262019230799999</v>
+      </c>
+      <c r="E33" s="16">
+        <v>2.9316319318900002</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.938762019231</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.34289130965868603</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.32562099359000002</v>
+      </c>
+      <c r="I33" s="16">
+        <v>3.9729982217200002</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.101932819729256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="16">
+        <v>0.34801682692300001</v>
+      </c>
+      <c r="C34" s="16">
+        <v>2.6886883063194</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.258914262821</v>
+      </c>
+      <c r="E34" s="16">
+        <v>2.9502594287599999</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0.94381009615400002</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0.31437485432013401</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.31830929487199999</v>
+      </c>
+      <c r="I34" s="16">
+        <v>4.1601279821199997</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0.10007188366636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="16">
+        <v>0.359334935897</v>
+      </c>
+      <c r="C35" s="16">
+        <v>2.6630827598082698</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0.27143429487199999</v>
+      </c>
+      <c r="E35" s="16">
+        <v>2.9048326871299999</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.950060096154</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.29362952281267202</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0.32932692307700001</v>
+      </c>
+      <c r="I35" s="16">
+        <v>4.1908940902099996</v>
+      </c>
+      <c r="J35" s="16">
+        <v>9.9444342294259094E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+      <c r="B36" s="16">
+        <v>0.36245993589699999</v>
+      </c>
+      <c r="C36" s="16">
+        <v>2.6394633806668701</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0.27684294871800003</v>
+      </c>
+      <c r="E36" s="16">
+        <v>2.8637657165500001</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0.95246394230800002</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0.26851364037929398</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0.33052884615400002</v>
+      </c>
+      <c r="I36" s="16">
+        <v>4.1955159749700002</v>
+      </c>
+      <c r="J36" s="16">
+        <v>9.8748332467049504E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="16">
+        <v>0.37199519230799999</v>
+      </c>
+      <c r="C37" s="16">
+        <v>2.60965307798141</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0.27093349359000002</v>
+      </c>
+      <c r="E37" s="16">
+        <v>2.9078986094500001</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.95622996794899995</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0.24830499444252399</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.326322115385</v>
+      </c>
+      <c r="I37" s="16">
+        <v>4.3673535982800002</v>
+      </c>
+      <c r="J37" s="16">
+        <v>9.8184950830300599E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="16">
+        <v>0.37445913461500002</v>
+      </c>
+      <c r="C38" s="16">
+        <v>2.5812457268054598</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0.27153445512800001</v>
+      </c>
+      <c r="E38" s="16">
+        <v>2.8652200576600002</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.95979567307699998</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0.232215280639819</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0.33143028846200001</v>
+      </c>
+      <c r="I38" s="16">
+        <v>4.4517808266200003</v>
+      </c>
+      <c r="J38" s="16">
+        <v>9.8996726316090106E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="16">
+        <v>0.37936698717900003</v>
+      </c>
+      <c r="C39" s="16">
+        <v>2.5509101757636401</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0.28505608974399999</v>
+      </c>
+      <c r="E39" s="16">
+        <v>2.8324060073299999</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.96183894230800004</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.21838262402094299</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.323417467949</v>
+      </c>
+      <c r="I39" s="16">
+        <v>4.5506696273099996</v>
+      </c>
+      <c r="J39" s="16">
+        <v>9.8500547182129097E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="16">
+        <v>0.38846153846199999</v>
+      </c>
+      <c r="C40" s="16">
+        <v>2.5251106592324999</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0.287960737179</v>
+      </c>
+      <c r="E40" s="16">
+        <v>2.8335890097499998</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0.96352163461499996</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0.19888301430604299</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.31660657051300001</v>
+      </c>
+      <c r="I40" s="16">
+        <v>4.7944402572399998</v>
+      </c>
+      <c r="J40" s="16">
+        <v>9.7232132683510303E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="16">
+        <v>0.396213942308</v>
+      </c>
+      <c r="C41" s="16">
+        <v>2.5050124914218199</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0.29336939102600001</v>
+      </c>
+      <c r="E41" s="16">
+        <v>2.78238731164</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.96396233974400003</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0.190899785283284</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0.322115384615</v>
+      </c>
+      <c r="I41" s="16">
+        <v>4.7648355655200003</v>
+      </c>
+      <c r="J41" s="16">
+        <v>9.7222879593227798E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="16">
+        <v>0.39977964743599997</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2.4734362003130701</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0.282351762821</v>
+      </c>
+      <c r="E42" s="16">
+        <v>2.8596579784</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0.96682692307700002</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0.17941481283841901</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0.318509615385</v>
+      </c>
+      <c r="I42" s="16">
+        <v>4.9036134817699999</v>
+      </c>
+      <c r="J42" s="16">
+        <v>9.6179903861959098E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="16">
+        <v>0.409154647436</v>
+      </c>
+      <c r="C43" s="16">
+        <v>2.44264336488185</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0.28976362179499998</v>
+      </c>
+      <c r="E43" s="16">
+        <v>2.8248117825899999</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0.96858974359000005</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.171499716853484</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0.331029647436</v>
+      </c>
+      <c r="I43" s="16">
+        <v>4.8553791290700001</v>
+      </c>
+      <c r="J43" s="16">
+        <v>9.6531012542629399E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="16">
+        <v>0.41117788461499999</v>
+      </c>
+      <c r="C44" s="16">
+        <v>2.4221836114541002</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0.28946314102600001</v>
+      </c>
+      <c r="E44" s="16">
+        <v>2.81554131019</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0.96822916666699999</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0.16019677951549799</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0.32261618589699997</v>
+      </c>
+      <c r="I44" s="16">
+        <v>5.0446245486899999</v>
+      </c>
+      <c r="J44" s="16">
+        <v>9.6681028767504895E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>41</v>
+      </c>
+      <c r="B45" s="16">
+        <v>0.41917067307700001</v>
+      </c>
+      <c r="C45" s="16">
+        <v>2.4005436982863899</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0.30038060897399999</v>
+      </c>
+      <c r="E45" s="16">
+        <v>2.77389459732</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0.970432692308</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.152451173197</v>
+      </c>
+      <c r="H45" s="16">
+        <v>0.32181490384599998</v>
+      </c>
+      <c r="I45" s="16">
+        <v>5.1961906384200001</v>
+      </c>
+      <c r="J45" s="16">
+        <v>9.4207619680270693E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>42</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.42728365384599998</v>
+      </c>
+      <c r="C46" s="16">
+        <v>2.3706318292862298</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0.305789262821</v>
+      </c>
+      <c r="E46" s="16">
+        <v>2.7515752926900001</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0.97273637820500003</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.147007984992785</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0.32021233974399999</v>
+      </c>
+      <c r="I46" s="16">
+        <v>5.3256090726599998</v>
+      </c>
+      <c r="J46" s="16">
+        <v>9.6263043430269105E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>43</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.42890624999999999</v>
+      </c>
+      <c r="C47" s="16">
+        <v>2.3542239763797799</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0.30278445512800001</v>
+      </c>
+      <c r="E47" s="16">
+        <v>2.7423536471799999</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0.971394230769</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0.14353384700341101</v>
+      </c>
+      <c r="H47" s="16">
+        <v>0.32662259615400002</v>
+      </c>
+      <c r="I47" s="16">
+        <v>5.1990679716499999</v>
+      </c>
+      <c r="J47" s="16">
+        <v>9.6005827584772593E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>44</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.436919070513</v>
+      </c>
+      <c r="C48" s="16">
+        <v>2.3371212641398098</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.31520432692299999</v>
+      </c>
+      <c r="E48" s="16">
+        <v>2.71308370737</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.97265625</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.13449831104431301</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0.33012820512800001</v>
+      </c>
+      <c r="I48" s="16">
+        <v>5.3286387125700001</v>
+      </c>
+      <c r="J48" s="16">
+        <v>9.5545461429490997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>45</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.444931891026</v>
+      </c>
+      <c r="C49" s="16">
+        <v>2.30139201359871</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0.294070512821</v>
+      </c>
+      <c r="E49" s="16">
+        <v>2.8244319390000001</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0.97297676282099999</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0.133060372448884</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0.323217147436</v>
+      </c>
+      <c r="I49" s="16">
+        <v>5.42228710957</v>
+      </c>
+      <c r="J49" s="16">
+        <v>9.62048988889561E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>46</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.45066105769199999</v>
+      </c>
+      <c r="C50" s="16">
+        <v>2.2923855378077498</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0.32552083333300003</v>
+      </c>
+      <c r="E50" s="16">
+        <v>2.68766171504</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0.97365785256399995</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0.130410079810863</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0.329226762821</v>
+      </c>
+      <c r="I50" s="16">
+        <v>5.4226751449800004</v>
+      </c>
+      <c r="J50" s="16">
+        <v>9.1191419840169305E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>47</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.45633012820500002</v>
+      </c>
+      <c r="C51" s="16">
+        <v>2.2637974078838599</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.31109775640999998</v>
+      </c>
+      <c r="E51" s="16">
+        <v>2.7214238582500001</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0.97447916666699996</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0.12352293168122901</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0.33343349359000002</v>
+      </c>
+      <c r="I51" s="16">
+        <v>5.5604033470200003</v>
+      </c>
+      <c r="J51" s="16">
+        <v>8.9330017066265602E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>48</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.46245993589700002</v>
+      </c>
+      <c r="C52" s="16">
+        <v>2.23898327289483</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0.305789262821</v>
+      </c>
+      <c r="E52" s="16">
+        <v>2.7595045627700001</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0.97471955128200005</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0.118014099620855</v>
+      </c>
+      <c r="H52" s="16">
+        <v>0.33473557692299999</v>
+      </c>
+      <c r="I52" s="16">
+        <v>5.4988974057700002</v>
+      </c>
+      <c r="J52" s="16">
+        <v>9.1056659986184896E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>